--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105471.1872573707</v>
+        <v>103032.7141576239</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>283.6041951561669</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>126.7498226612768</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>249.8107330807145</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>19.489231202389</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>3.444282854100688</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>71.31340860082315</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>218.2047179501961</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>281.9408634908486</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>61.99004373593782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>32.93805507567788</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>184.6448939492135</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>163.0860508096754</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1306,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>25.50806365093189</v>
+        <v>61.17118126752668</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4.019807611472697</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,13 +1664,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.97427419833578</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>252.5895617850416</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890399</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487351</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>184.6527153981513</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>5.421623586788709</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>195.7664815891586</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.17501931583776</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>145.6229551553988</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="36">
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1923.066817489253</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>1554.104300548841</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D2" t="n">
-        <v>1195.838601942091</v>
+        <v>194.542240332463</v>
       </c>
       <c r="E2" t="n">
-        <v>810.0503493438464</v>
+        <v>194.542240332463</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>194.542240332463</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>194.542240332463</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3073.271747790266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3073.271747790266</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2699.805989529186</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2309.666657553375</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>644.3338566427969</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C4" t="n">
-        <v>644.3338566427969</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D4" t="n">
-        <v>644.3338566427969</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>138.5458624936209</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>138.5458624936209</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>138.5458624936209</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577775</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>872.3234075408143</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>644.3338566427969</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y4" t="n">
-        <v>644.3338566427969</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1243.280836875046</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.278680221567</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="D5" t="n">
-        <v>1381.278680221567</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>995.4904276233228</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>584.5045228337153</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
         <v>66.51211643218342</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2393.48576717606</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2020.02000891498</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>1629.880676939168</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.7508393439803</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4756,19 +4756,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.157560278958</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>969.7403902419976</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X7" t="n">
-        <v>741.7508393439803</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="Y7" t="n">
-        <v>741.7508393439803</v>
+        <v>647.3667606649364</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.150970528558</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392465</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416653</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>825.3518203322459</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4960,16 +4960,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>1071.910120335303</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X10" t="n">
-        <v>1046.144399475776</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="Y10" t="n">
-        <v>825.3518203322459</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,19 +5112,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M12" t="n">
         <v>716.6687843969303</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597624</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797747</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,25 +5291,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452614</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400688</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121619</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998262</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998262</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1361.415228493873</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1133.425677595856</v>
+        <v>916.2946447138387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703086</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,31 +5507,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038327</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,13 +5826,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5841,16 +5841,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797733</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235164</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579362</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1788.515128237795</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,61 +5978,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>718.5507239167111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6427,7 +6427,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>718.5507239167111</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6452,22 +6452,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6546,19 +6546,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,46 +6680,46 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745237</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>549.6145409888042</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888042</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797186</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2232.8234857363</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2013.222020759241</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1724.146794103439</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1469.462305897552</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1180.045135860591</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>952.055584962574</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>731.2630058190439</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,19 +6929,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6953,31 +6953,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7163,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>77.94152538942043</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>25.03901180901494</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>139.4693302300325</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>62.35543909864896</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459547</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>33.93343655154939</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405091</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>67.48492792567674</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922728</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>211.9838267404996</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>22.81817176293617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>72.11969353038613</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>35.40333084624581</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406862</v>
+        <v>317255.8761406865</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="E2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="F2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="G2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.304868253</v>
       </c>
       <c r="H2" t="n">
         <v>343037.3048682527</v>
@@ -26335,22 +26335,22 @@
         <v>343037.3048682528</v>
       </c>
       <c r="J2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="K2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="L2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="M2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="N2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="P2" t="n">
         <v>343037.3048682529</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.815770605185866e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50238.95917052896</v>
+        <v>50238.95917052892</v>
       </c>
       <c r="C4" t="n">
         <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
+        <v>13606.80811184269</v>
+      </c>
+      <c r="G4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
@@ -26439,25 +26439,25 @@
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="L4" t="n">
+        <v>13606.80811184281</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13606.80811184281</v>
+      </c>
+      <c r="N4" t="n">
         <v>13606.80811184279</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="N4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13606.80811184275</v>
-      </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1169661.769318828</v>
+        <v>-1169848.162707367</v>
       </c>
       <c r="C6" t="n">
-        <v>148214.9687477329</v>
+        <v>148214.968747733</v>
       </c>
       <c r="D6" t="n">
-        <v>148214.968747733</v>
+        <v>148214.9687477332</v>
       </c>
       <c r="E6" t="n">
-        <v>-97104.49487485242</v>
+        <v>-97139.23280028826</v>
       </c>
       <c r="F6" t="n">
-        <v>228307.9669325031</v>
+        <v>228273.2290070673</v>
       </c>
       <c r="G6" t="n">
-        <v>228307.9669325028</v>
+        <v>228273.2290070674</v>
       </c>
       <c r="H6" t="n">
-        <v>228307.9669325029</v>
+        <v>228273.2290070672</v>
       </c>
       <c r="I6" t="n">
-        <v>228307.966932503</v>
+        <v>228273.2290070674</v>
       </c>
       <c r="J6" t="n">
-        <v>10776.76453522545</v>
+        <v>10742.02660978973</v>
       </c>
       <c r="K6" t="n">
-        <v>228307.9669325031</v>
+        <v>228273.2290070672</v>
       </c>
       <c r="L6" t="n">
-        <v>228307.966932503</v>
+        <v>228273.2290070672</v>
       </c>
       <c r="M6" t="n">
-        <v>143252.9389969913</v>
+        <v>143218.2010715553</v>
       </c>
       <c r="N6" t="n">
-        <v>228307.9669325031</v>
+        <v>228273.2290070671</v>
       </c>
       <c r="O6" t="n">
-        <v>228307.9669325029</v>
+        <v>228273.229007067</v>
       </c>
       <c r="P6" t="n">
-        <v>228307.9669325029</v>
+        <v>228273.2290070673</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>123.2718505855445</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>167.8579417260437</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>126.9447314441802</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>141.9767651688306</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>192.7170077032573</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>67.30010522656437</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>105.25677736269</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>192.7716003133593</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.0889477142671</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>40.83191932994472</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>200.2015917381053</v>
+        <v>164.5384741215105</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29208,7 +29208,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>9.496150991986756e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="36">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>430.4001870301144</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>399.1902208908131</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32798,7 +32798,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32959,7 +32959,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33266,10 +33266,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33281,7 +33281,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33500,19 +33500,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34126,10 +34126,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394601</v>
+        <v>291.8458072502402</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096333</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096338</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36929,7 +36929,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
